--- a/Docs/Excel/Users.xlsx
+++ b/Docs/Excel/Users.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12810" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12810" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JSON tabbed" sheetId="2" r:id="rId1"/>
     <sheet name="Avatar Names" sheetId="3" r:id="rId2"/>
     <sheet name="User UUID" sheetId="4" r:id="rId3"/>
+    <sheet name="login flowchart" sheetId="5" r:id="rId4"/>
+    <sheet name="test user multiple docs" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="285">
   <si>
     <t>ODESSA</t>
   </si>
@@ -738,13 +740,154 @@
   </si>
   <si>
     <t>", "uidString1": "</t>
+  </si>
+  <si>
+    <t>", "userUuid": "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App Start -&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">check local storage for userToken </t>
+  </si>
+  <si>
+    <t>if(token)</t>
+  </si>
+  <si>
+    <t>if(validated)</t>
+  </si>
+  <si>
+    <t>go to HomePage</t>
+  </si>
+  <si>
+    <t>if(pending)</t>
+  </si>
+  <si>
+    <t>check connection</t>
+  </si>
+  <si>
+    <t>if(connection)</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>if(!validated)</t>
+  </si>
+  <si>
+    <t>set validated = TRUE</t>
+  </si>
+  <si>
+    <t>show LoginPage</t>
+  </si>
+  <si>
+    <t>Store/Update userToken</t>
+  </si>
+  <si>
+    <t>org.couchdb.user:testUser001</t>
+  </si>
+  <si>
+    <t>testUser001</t>
+  </si>
+  <si>
+    <t>", "type": "user", "password": "password", "roles": [] },</t>
+  </si>
+  <si>
+    <t>org.couchdb.user:testUser002</t>
+  </si>
+  <si>
+    <t>org.couchdb.user:testUser003</t>
+  </si>
+  <si>
+    <t>org.couchdb.user:testUser004</t>
+  </si>
+  <si>
+    <t>org.couchdb.user:testUser005</t>
+  </si>
+  <si>
+    <t>testUser002</t>
+  </si>
+  <si>
+    <t>testUser003</t>
+  </si>
+  <si>
+    <t>testUser004</t>
+  </si>
+  <si>
+    <t>testUser005</t>
+  </si>
+  <si>
+    <t>{ "_id": "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usersDocs = [ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">", "type": "user", "password": "password", "roles": [] } ] </t>
+  </si>
+  <si>
+    <t>if(!connection)</t>
+  </si>
+  <si>
+    <t>store token</t>
+  </si>
+  <si>
+    <t>set validated = pending</t>
+  </si>
+  <si>
+    <t>Store user Token</t>
+  </si>
+  <si>
+    <t>Go To HomePage</t>
+  </si>
+  <si>
+    <t>┝</t>
+  </si>
+  <si>
+    <t>─</t>
+  </si>
+  <si>
+    <t>━</t>
+  </si>
+  <si>
+    <t>└</t>
+  </si>
+  <si>
+    <t>┕</t>
+  </si>
+  <si>
+    <t>┝───</t>
+  </si>
+  <si>
+    <t>┕───</t>
+  </si>
+  <si>
+    <t>error msg</t>
+  </si>
+  <si>
+    <t>Show LoginPage (form)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //  user enters uname/pass</t>
+  </si>
+  <si>
+    <t>──</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>───</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -780,6 +923,18 @@
       <color theme="1"/>
       <name val="Roboto Mono Light"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -929,7 +1084,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -937,6 +1092,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="129">
@@ -1405,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="B1:AR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1435,30 +1617,32 @@
     <col min="20" max="20" width="29.5" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="4"/>
+    <col min="23" max="23" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>213</v>
@@ -1524,65 +1708,72 @@
       <c r="W1" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="7">
+        <v>597</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z1" s="6" t="str">
+        <f>CONCATENATE(N1,X1,P1)</f>
+        <v>Badillo597Sergio</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>212</v>
@@ -1645,65 +1836,72 @@
       <c r="W2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="7">
+        <v>924</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z2" s="6" t="str">
+        <f t="shared" ref="Z2:Z30" si="1">CONCATENATE(N2,X2,P2)</f>
+        <v>Cain924Timothy</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>212</v>
@@ -1766,65 +1964,72 @@
       <c r="W3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="7">
+        <v>557</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z3" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>De La Garza557Oscar</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>212</v>
@@ -1887,65 +2092,72 @@
       <c r="W4" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="7">
+        <v>128</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>De La Rosa128Irvin</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>212</v>
@@ -2008,65 +2220,72 @@
       <c r="W5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="7">
+        <v>509</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Diaz509Gonzalo</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AC5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AK5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AM5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AN5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AO5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AR5" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>212</v>
@@ -2129,65 +2348,72 @@
       <c r="W6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="7">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Escobar103Horacio</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AC6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AI6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AK6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AR6" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>212</v>
@@ -2250,65 +2476,72 @@
       <c r="W7" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="7">
+        <v>194</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Flores194Eric</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z7" s="4" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AK7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AP7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AR7" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>212</v>
@@ -2371,65 +2604,72 @@
       <c r="W8" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="7">
+        <v>701</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Garcia701Louis</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AC8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AI8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK8" s="3" t="s">
+      <c r="AM8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AO8" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AP8" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AQ8" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP8" s="3" t="s">
+      <c r="AR8" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>212</v>
@@ -2492,65 +2732,72 @@
       <c r="W9" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="7">
+        <v>672</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>González672Eduardo</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AC9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AI9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="AJ9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK9" s="3" t="s">
+      <c r="AM9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL9" s="3" t="s">
+      <c r="AN9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM9" s="3" t="s">
+      <c r="AO9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN9" s="4" t="s">
+      <c r="AP9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO9" s="3" t="s">
+      <c r="AQ9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP9" s="3" t="s">
+      <c r="AR9" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>212</v>
@@ -2613,65 +2860,72 @@
       <c r="W10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="7">
+        <v>148</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>González148Irving</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AC10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AI10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AJ10" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK10" s="3" t="s">
+      <c r="AM10" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL10" s="3" t="s">
+      <c r="AN10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM10" s="3" t="s">
+      <c r="AO10" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AP10" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP10" s="3" t="s">
+      <c r="AR10" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>212</v>
@@ -2734,65 +2988,72 @@
       <c r="W11" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="7">
+        <v>383</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>González383Kevin</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AC11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AI11" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AM11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AO11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN11" s="4" t="s">
+      <c r="AP11" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AR11" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>212</v>
@@ -2855,65 +3116,72 @@
       <c r="W12" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="X12" s="7">
+        <v>526</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Longoria526Salvador</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AC12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AI12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AL12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK12" s="3" t="s">
+      <c r="AM12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL12" s="3" t="s">
+      <c r="AN12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM12" s="3" t="s">
+      <c r="AO12" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN12" s="4" t="s">
+      <c r="AP12" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO12" s="3" t="s">
+      <c r="AQ12" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP12" s="3" t="s">
+      <c r="AR12" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>212</v>
@@ -2979,65 +3247,72 @@
       <c r="W13" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="X13" s="7">
+        <v>699</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Marroquin699José</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AC13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AA13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG13" s="3" t="s">
+      <c r="AI13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AJ13" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AI13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK13" s="3" t="s">
+      <c r="AM13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AN13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM13" s="3" t="s">
+      <c r="AO13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN13" s="4" t="s">
+      <c r="AP13" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP13" s="3" t="s">
+      <c r="AR13" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>212</v>
@@ -3100,65 +3375,72 @@
       <c r="W14" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="7">
+        <v>463</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Martinez463Julio</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z14" s="4" t="s">
+      <c r="AC14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG14" s="3" t="s">
+      <c r="AI14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AJ14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AI14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ14" s="4" t="s">
+      <c r="AL14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK14" s="3" t="s">
+      <c r="AM14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL14" s="3" t="s">
+      <c r="AN14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM14" s="3" t="s">
+      <c r="AO14" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN14" s="4" t="s">
+      <c r="AP14" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP14" s="3" t="s">
+      <c r="AR14" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>212</v>
@@ -3221,65 +3503,72 @@
       <c r="W15" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="7">
+        <v>542</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Medina542Adan</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AC15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG15" s="3" t="s">
+      <c r="AI15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AJ15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AI15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK15" s="3" t="s">
+      <c r="AM15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AN15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM15" s="3" t="s">
+      <c r="AO15" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO15" s="3" t="s">
+      <c r="AQ15" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP15" s="3" t="s">
+      <c r="AR15" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>212</v>
@@ -3342,65 +3631,72 @@
       <c r="W16" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="X16" s="7">
+        <v>863</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Medina863Miguel</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y16" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AC16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH16" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AA16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG16" s="3" t="s">
+      <c r="AI16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AJ16" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AI16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK16" s="3" t="s">
+      <c r="AM16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL16" s="3" t="s">
+      <c r="AN16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM16" s="3" t="s">
+      <c r="AO16" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AP16" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO16" s="3" t="s">
+      <c r="AQ16" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP16" s="3" t="s">
+      <c r="AR16" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>212</v>
@@ -3466,65 +3762,72 @@
       <c r="W17" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="7">
+        <v>258</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Mendez258José</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z17" s="4" t="s">
+      <c r="AC17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AI17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AJ17" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AI17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AL17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK17" s="3" t="s">
+      <c r="AM17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL17" s="3" t="s">
+      <c r="AN17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM17" s="3" t="s">
+      <c r="AO17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AP17" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO17" s="3" t="s">
+      <c r="AQ17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP17" s="3" t="s">
+      <c r="AR17" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>212</v>
@@ -3587,65 +3890,72 @@
       <c r="W18" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="4" t="s">
+      <c r="X18" s="7">
+        <v>824</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Montalvan824Oscar</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z18" s="4" t="s">
+      <c r="AC18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG18" s="3" t="s">
+      <c r="AI18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="AJ18" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ18" s="4" t="s">
+      <c r="AL18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK18" s="3" t="s">
+      <c r="AM18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL18" s="3" t="s">
+      <c r="AN18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM18" s="3" t="s">
+      <c r="AO18" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN18" s="4" t="s">
+      <c r="AP18" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO18" s="3" t="s">
+      <c r="AQ18" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP18" s="3" t="s">
+      <c r="AR18" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>212</v>
@@ -3708,65 +4018,72 @@
       <c r="W19" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="X19" s="7">
+        <v>977</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Montes977Carlos</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z19" s="4" t="s">
+      <c r="AC19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AA19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG19" s="3" t="s">
+      <c r="AI19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" s="4" t="s">
+      <c r="AJ19" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ19" s="4" t="s">
+      <c r="AL19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK19" s="3" t="s">
+      <c r="AM19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL19" s="3" t="s">
+      <c r="AN19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM19" s="3" t="s">
+      <c r="AO19" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN19" s="4" t="s">
+      <c r="AP19" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO19" s="3" t="s">
+      <c r="AQ19" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP19" s="3" t="s">
+      <c r="AR19" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>212</v>
@@ -3829,65 +4146,72 @@
       <c r="W20" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X20" s="4" t="s">
+      <c r="X20" s="7">
+        <v>29</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Ocañas29Elias</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z20" s="4" t="s">
+      <c r="AC20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG20" s="3" t="s">
+      <c r="AI20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH20" s="4" t="s">
+      <c r="AJ20" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AI20" s="3" t="s">
+      <c r="AK20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ20" s="4" t="s">
+      <c r="AL20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK20" s="3" t="s">
+      <c r="AM20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL20" s="3" t="s">
+      <c r="AN20" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM20" s="3" t="s">
+      <c r="AO20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN20" s="4" t="s">
+      <c r="AP20" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO20" s="3" t="s">
+      <c r="AQ20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP20" s="3" t="s">
+      <c r="AR20" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="C21" s="3" t="s">
         <v>212</v>
@@ -3953,65 +4277,72 @@
       <c r="W21" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X21" s="4" t="s">
+      <c r="X21" s="7">
+        <v>732</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Ochoa732Joel</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z21" s="4" t="s">
+      <c r="AC21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG21" s="3" t="s">
+      <c r="AI21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH21" s="4" t="s">
+      <c r="AJ21" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AI21" s="3" t="s">
+      <c r="AK21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ21" s="4" t="s">
+      <c r="AL21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK21" s="3" t="s">
+      <c r="AM21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL21" s="3" t="s">
+      <c r="AN21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM21" s="3" t="s">
+      <c r="AO21" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN21" s="4" t="s">
+      <c r="AP21" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO21" s="3" t="s">
+      <c r="AQ21" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP21" s="3" t="s">
+      <c r="AR21" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>212</v>
@@ -4074,65 +4405,72 @@
       <c r="W22" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X22" s="4" t="s">
+      <c r="X22" s="7">
+        <v>737</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Ochoa737Joel</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z22" s="4" t="s">
+      <c r="AC22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG22" s="3" t="s">
+      <c r="AI22" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH22" s="4" t="s">
+      <c r="AJ22" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AI22" s="3" t="s">
+      <c r="AK22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ22" s="4" t="s">
+      <c r="AL22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AK22" s="3" t="s">
+      <c r="AM22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL22" s="3" t="s">
+      <c r="AN22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM22" s="3" t="s">
+      <c r="AO22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN22" s="4" t="s">
+      <c r="AP22" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO22" s="3" t="s">
+      <c r="AQ22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP22" s="3" t="s">
+      <c r="AR22" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>212</v>
@@ -4195,65 +4533,72 @@
       <c r="W23" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X23" s="4" t="s">
+      <c r="X23" s="7">
+        <v>283</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Peralez283Juan</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z23" s="4" t="s">
+      <c r="AC23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF23" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG23" s="3" t="s">
+      <c r="AI23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH23" s="4" t="s">
+      <c r="AJ23" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AI23" s="3" t="s">
+      <c r="AK23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ23" s="4" t="s">
+      <c r="AL23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK23" s="3" t="s">
+      <c r="AM23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AN23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM23" s="3" t="s">
+      <c r="AO23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN23" s="4" t="s">
+      <c r="AP23" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO23" s="3" t="s">
+      <c r="AQ23" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP23" s="3" t="s">
+      <c r="AR23" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>212</v>
@@ -4316,65 +4661,72 @@
       <c r="W24" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X24" s="4" t="s">
+      <c r="X24" s="7">
+        <v>935</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Rendón935Jimmy</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z24" s="4" t="s">
+      <c r="AC24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG24" s="3" t="s">
+      <c r="AI24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH24" s="4" t="s">
+      <c r="AJ24" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AI24" s="3" t="s">
+      <c r="AK24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ24" s="4" t="s">
+      <c r="AL24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK24" s="3" t="s">
+      <c r="AM24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL24" s="3" t="s">
+      <c r="AN24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM24" s="3" t="s">
+      <c r="AO24" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN24" s="4" t="s">
+      <c r="AP24" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO24" s="3" t="s">
+      <c r="AQ24" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP24" s="3" t="s">
+      <c r="AR24" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>212</v>
@@ -4440,65 +4792,72 @@
       <c r="W25" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X25" s="4" t="s">
+      <c r="X25" s="7">
+        <v>128</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Rico128José</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Y25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z25" s="4" t="s">
+      <c r="AC25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AA25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG25" s="3" t="s">
+      <c r="AI25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH25" s="4" t="s">
+      <c r="AJ25" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AI25" s="3" t="s">
+      <c r="AK25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ25" s="4" t="s">
+      <c r="AL25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK25" s="3" t="s">
+      <c r="AM25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL25" s="3" t="s">
+      <c r="AN25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM25" s="3" t="s">
+      <c r="AO25" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN25" s="4" t="s">
+      <c r="AP25" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO25" s="3" t="s">
+      <c r="AQ25" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP25" s="3" t="s">
+      <c r="AR25" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>212</v>
@@ -4561,65 +4920,72 @@
       <c r="W26" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X26" s="4" t="s">
+      <c r="X26" s="7">
+        <v>170</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Tijerina170René</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB26" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z26" s="4" t="s">
+      <c r="AC26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH26" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG26" s="3" t="s">
+      <c r="AI26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH26" s="4" t="s">
+      <c r="AJ26" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AI26" s="3" t="s">
+      <c r="AK26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ26" s="4" t="s">
+      <c r="AL26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK26" s="3" t="s">
+      <c r="AM26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL26" s="3" t="s">
+      <c r="AN26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM26" s="3" t="s">
+      <c r="AO26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN26" s="4" t="s">
+      <c r="AP26" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO26" s="3" t="s">
+      <c r="AQ26" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP26" s="3" t="s">
+      <c r="AR26" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>212</v>
@@ -4682,65 +5048,72 @@
       <c r="W27" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X27" s="4" t="s">
+      <c r="X27" s="7">
+        <v>51</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Torres51Alex</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z27" s="4" t="s">
+      <c r="AC27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH27" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE27" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG27" s="3" t="s">
+      <c r="AI27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH27" s="4" t="s">
+      <c r="AJ27" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AI27" s="3" t="s">
+      <c r="AK27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ27" s="4" t="s">
+      <c r="AL27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK27" s="3" t="s">
+      <c r="AM27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL27" s="3" t="s">
+      <c r="AN27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM27" s="3" t="s">
+      <c r="AO27" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN27" s="4" t="s">
+      <c r="AP27" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO27" s="3" t="s">
+      <c r="AQ27" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP27" s="3" t="s">
+      <c r="AR27" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>212</v>
@@ -4803,65 +5176,72 @@
       <c r="W28" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="X28" s="7">
+        <v>783</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Tovar783Eduardo</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Y28" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z28" s="4" t="s">
+      <c r="AC28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AA28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE28" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG28" s="3" t="s">
+      <c r="AI28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH28" s="4" t="s">
+      <c r="AJ28" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AI28" s="3" t="s">
+      <c r="AK28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ28" s="4" t="s">
+      <c r="AL28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK28" s="3" t="s">
+      <c r="AM28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL28" s="3" t="s">
+      <c r="AN28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM28" s="3" t="s">
+      <c r="AO28" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN28" s="4" t="s">
+      <c r="AP28" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO28" s="3" t="s">
+      <c r="AQ28" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP28" s="3" t="s">
+      <c r="AR28" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>212</v>
@@ -4924,65 +5304,72 @@
       <c r="W29" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X29" s="4" t="s">
+      <c r="X29" s="7">
+        <v>327</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Treviño327Pete</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z29" s="4" t="s">
+      <c r="AC29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE29" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG29" s="3" t="s">
+      <c r="AI29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH29" s="4" t="s">
+      <c r="AJ29" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AI29" s="3" t="s">
+      <c r="AK29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ29" s="4" t="s">
+      <c r="AL29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK29" s="3" t="s">
+      <c r="AM29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL29" s="3" t="s">
+      <c r="AN29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM29" s="3" t="s">
+      <c r="AO29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN29" s="4" t="s">
+      <c r="AP29" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO29" s="3" t="s">
+      <c r="AQ29" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP29" s="3" t="s">
+      <c r="AR29" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>212</v>
@@ -5045,65 +5432,72 @@
       <c r="W30" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="X30" s="4" t="s">
+      <c r="X30" s="7">
+        <v>217</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Vela217Heriberto</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="Y30" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z30" s="4" t="s">
+      <c r="AC30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AA30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC30" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE30" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG30" s="3" t="s">
+      <c r="AI30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH30" s="4" t="s">
+      <c r="AJ30" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AI30" s="3" t="s">
+      <c r="AK30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AJ30" s="4" t="s">
+      <c r="AL30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AK30" s="3" t="s">
+      <c r="AM30" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AL30" s="3" t="s">
+      <c r="AN30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM30" s="3" t="s">
+      <c r="AO30" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AN30" s="4" t="s">
+      <c r="AP30" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AO30" s="3" t="s">
+      <c r="AQ30" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AP30" s="3" t="s">
+      <c r="AR30" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>215</v>
       </c>
@@ -5113,6 +5507,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="W31" s="5"/>
+      <c r="Y31" s="5"/>
     </row>
   </sheetData>
   <sortState ref="C1:AH30">
@@ -5409,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5504,4 +5899,397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="G12" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
+      <c r="H13" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+      <c r="I14" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+      <c r="J15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+      <c r="J16" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="K16" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" t="s">
+        <v>250</v>
+      </c>
+      <c r="M16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" t="s">
+        <v>247</v>
+      </c>
+      <c r="I23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G24" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L24" t="s">
+        <v>279</v>
+      </c>
+      <c r="M24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G28" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L28" t="s">
+        <v>269</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="N28" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="J29" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Excel/Users.xlsx
+++ b/Docs/Excel/Users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12810" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12810" tabRatio="635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JSON tabbed" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="289">
   <si>
     <t>ODESSA</t>
   </si>
@@ -878,6 +878,18 @@
   </si>
   <si>
     <t>───</t>
+  </si>
+  <si>
+    <t>Pantera</t>
+  </si>
+  <si>
+    <t>(Panther)</t>
+  </si>
+  <si>
+    <t>Lalo</t>
+  </si>
+  <si>
+    <t>Rini</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1602,7 @@
   <dimension ref="A1:AR31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="B1:AR31"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5524,8 +5536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5600,7 +5612,7 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5675,7 +5687,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>154</v>
       </c>
@@ -5683,15 +5695,18 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -5699,7 +5714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
@@ -5707,7 +5722,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
@@ -5715,7 +5730,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>159</v>
       </c>
@@ -5723,7 +5738,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
@@ -5731,7 +5746,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
@@ -5739,7 +5754,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>162</v>
       </c>
@@ -5747,7 +5762,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
@@ -5755,15 +5770,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>165</v>
       </c>
@@ -5771,7 +5786,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>166</v>
       </c>
@@ -5779,7 +5794,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>167</v>
       </c>
@@ -5787,7 +5802,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>168</v>
       </c>
@@ -5905,7 +5920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Excel/Users.xlsx
+++ b/Docs/Excel/Users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\_A\_UX\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Bald Builders\SESA\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12810" tabRatio="635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="12810" tabRatio="635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JSON tabbed" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="User UUID" sheetId="4" r:id="rId3"/>
     <sheet name="login flowchart" sheetId="5" r:id="rId4"/>
     <sheet name="test user multiple docs" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="463">
   <si>
     <t>ODESSA</t>
   </si>
@@ -784,27 +785,12 @@
     <t>Store/Update userToken</t>
   </si>
   <si>
-    <t>org.couchdb.user:testUser001</t>
-  </si>
-  <si>
     <t>testUser001</t>
   </si>
   <si>
     <t>", "type": "user", "password": "password", "roles": [] },</t>
   </si>
   <si>
-    <t>org.couchdb.user:testUser002</t>
-  </si>
-  <si>
-    <t>org.couchdb.user:testUser003</t>
-  </si>
-  <si>
-    <t>org.couchdb.user:testUser004</t>
-  </si>
-  <si>
-    <t>org.couchdb.user:testUser005</t>
-  </si>
-  <si>
     <t>testUser002</t>
   </si>
   <si>
@@ -890,6 +876,543 @@
   </si>
   <si>
     <t>Rini</t>
+  </si>
+  <si>
+    <t>org.couchdb.user:</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Alaniz</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Andrade</t>
+  </si>
+  <si>
+    <t>Benavides</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Camarillo</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Cantu</t>
+  </si>
+  <si>
+    <t>Careaga</t>
+  </si>
+  <si>
+    <t>Cepeda</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Chavez</t>
+  </si>
+  <si>
+    <t>Contreras Sr.</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>De León</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Elizondo</t>
+  </si>
+  <si>
+    <t>Arnoldo</t>
+  </si>
+  <si>
+    <t>Escobedo</t>
+  </si>
+  <si>
+    <t>Erick</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Iovani</t>
+  </si>
+  <si>
+    <t>Galvan</t>
+  </si>
+  <si>
+    <t>Rogelio</t>
+  </si>
+  <si>
+    <t>Gaona</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Garza</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>Noel</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>Isai</t>
+  </si>
+  <si>
+    <t>Hisiquio</t>
+  </si>
+  <si>
+    <t>Sixto</t>
+  </si>
+  <si>
+    <t>Iracheta</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Klimp</t>
+  </si>
+  <si>
+    <t>Leal</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Lucio</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>Xavier Dominique</t>
+  </si>
+  <si>
+    <t>José Luis</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Calixto</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Montoya</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Osuna</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Oyervides</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Palacios</t>
+  </si>
+  <si>
+    <t>Cristobal</t>
+  </si>
+  <si>
+    <t>Pedroza</t>
+  </si>
+  <si>
+    <t>Advento</t>
+  </si>
+  <si>
+    <t>Peña</t>
+  </si>
+  <si>
+    <t>Perales</t>
+  </si>
+  <si>
+    <t>Lauro</t>
+  </si>
+  <si>
+    <t>Piñon</t>
+  </si>
+  <si>
+    <t>Ovidio</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Retana</t>
+  </si>
+  <si>
+    <t>Gabino</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Raul Jr.</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Saldaña</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto </t>
+  </si>
+  <si>
+    <t>Segura</t>
+  </si>
+  <si>
+    <t>Serna</t>
+  </si>
+  <si>
+    <t>Teniente</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Roel</t>
+  </si>
+  <si>
+    <t>Ediberto</t>
+  </si>
+  <si>
+    <t>José F.</t>
+  </si>
+  <si>
+    <t>Venegas</t>
+  </si>
+  <si>
+    <t>Verduzco</t>
+  </si>
+  <si>
+    <t>Leonel</t>
+  </si>
+  <si>
+    <t>Villareal</t>
+  </si>
+  <si>
+    <t>Juan Pablo</t>
+  </si>
+  <si>
+    <t>Yunes</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Zuñiga</t>
+  </si>
+  <si>
+    <t>NightHawk</t>
+  </si>
+  <si>
+    <t>Sucio</t>
+  </si>
+  <si>
+    <t>Punetin</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Diva</t>
+  </si>
+  <si>
+    <t>Poncharello</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Grufkaos</t>
+  </si>
+  <si>
+    <t>Kandhor</t>
+  </si>
+  <si>
+    <t>Bento</t>
+  </si>
+  <si>
+    <t>Christolf</t>
+  </si>
+  <si>
+    <t>Velon</t>
+  </si>
+  <si>
+    <t>Pollo</t>
+  </si>
+  <si>
+    <t>LaloSegundo</t>
+  </si>
+  <si>
+    <t>Hijo</t>
+  </si>
+  <si>
+    <t>Papa</t>
+  </si>
+  <si>
+    <t>Grandpa</t>
+  </si>
+  <si>
+    <t>Beto</t>
+  </si>
+  <si>
+    <t>Kike</t>
+  </si>
+  <si>
+    <t>Mauri</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>Velita</t>
+  </si>
+  <si>
+    <t>Sonric</t>
+  </si>
+  <si>
+    <t>Carlitos</t>
+  </si>
+  <si>
+    <t>Tarasmus</t>
+  </si>
+  <si>
+    <t>Kyriphon</t>
+  </si>
+  <si>
+    <t>Equinox</t>
+  </si>
+  <si>
+    <t>Isyrem</t>
+  </si>
+  <si>
+    <t>Pekas</t>
+  </si>
+  <si>
+    <t>Kylbot</t>
+  </si>
+  <si>
+    <t>Bonemail</t>
+  </si>
+  <si>
+    <t>Nizzo</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Bibbiz</t>
+  </si>
+  <si>
+    <t>Asmu</t>
+  </si>
+  <si>
+    <t>Wilkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alard </t>
+  </si>
+  <si>
+    <t>Scorp</t>
+  </si>
+  <si>
+    <t>Snipe</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Saber</t>
+  </si>
+  <si>
+    <t>Omen</t>
+  </si>
+  <si>
+    <t>Knuckles</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>Crusher</t>
+  </si>
+  <si>
+    <t>Spitfire</t>
+  </si>
+  <si>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>Ibis</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>Doomstride</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Dicer</t>
+  </si>
+  <si>
+    <t>Tortas</t>
+  </si>
+  <si>
+    <t>Gigabit</t>
+  </si>
+  <si>
+    <t>Cantina</t>
   </si>
 </sst>
 </file>
@@ -5536,8 +6059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5612,7 +6135,7 @@
         <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5700,10 +6223,10 @@
         <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5775,7 +6298,7 @@
         <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5945,12 +6468,12 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
         <v>242</v>
@@ -5959,10 +6482,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -5971,17 +6494,17 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
         <v>243</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -5993,11 +6516,11 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
         <v>245</v>
@@ -6005,11 +6528,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E12" s="12"/>
       <c r="G12" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>246</v>
@@ -6018,7 +6541,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" s="12"/>
       <c r="H13" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I13" t="s">
         <v>247</v>
@@ -6027,7 +6550,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="12"/>
       <c r="I14" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J14" t="s">
         <v>248</v>
@@ -6036,22 +6559,22 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="12"/>
       <c r="J15" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K15" t="s">
         <v>249</v>
       </c>
       <c r="L15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M15" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="12"/>
       <c r="J16" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K16" t="s">
         <v>243</v>
@@ -6060,7 +6583,7 @@
         <v>250</v>
       </c>
       <c r="M16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
@@ -6077,7 +6600,7 @@
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E21" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -6085,18 +6608,18 @@
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F22" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G22" t="s">
         <v>251</v>
       </c>
       <c r="I22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G23" s="13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
         <v>247</v>
@@ -6107,19 +6630,19 @@
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G24" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J24" t="s">
         <v>249</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s">
         <v>251</v>
@@ -6127,67 +6650,67 @@
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G25" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G26" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
         <v>243</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L26" t="s">
         <v>250</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s">
         <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G27" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
       <c r="G28" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
@@ -6201,110 +6724,1721 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" t="s">
         <v>171</v>
-      </c>
-      <c r="F1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>260</v>
       </c>
       <c r="G2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
         <v>257</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" t="s">
         <v>171</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
         <v>261</v>
-      </c>
-      <c r="G3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE($B2,", ",$A2)</f>
+        <v>Osuna, José</v>
+      </c>
+      <c r="D2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE($B3,", ",$A3)</f>
+        <v>Reyes, Juan Manuel</v>
+      </c>
+      <c r="D3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE($B4,", ",$A4)</f>
+        <v>De La Rosa, Irvin</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE($B5,", ",$A5)</f>
+        <v>Medina, Francisco</v>
+      </c>
+      <c r="D5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE($B6,", ",$A6)</f>
+        <v>Medina, Miguel</v>
+      </c>
+      <c r="D6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE($B7,", ",$A7)</f>
+        <v>Peña, Advento</v>
+      </c>
+      <c r="D7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE($B8,", ",$A8)</f>
+        <v>Martinez, Humberto</v>
+      </c>
+      <c r="D8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE($B9,", ",$A9)</f>
+        <v>Medina, Daniel</v>
+      </c>
+      <c r="D9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE($B10,", ",$A10)</f>
+        <v>Camarillo, Marco</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE($B11,", ",$A11)</f>
+        <v>Perales, Juan</v>
+      </c>
+      <c r="D11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE($B12,", ",$A12)</f>
+        <v>Martinez, Vicente</v>
+      </c>
+      <c r="D12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE($B13,", ",$A13)</f>
+        <v>Medina, Calixto</v>
+      </c>
+      <c r="D13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE($B14,", ",$A14)</f>
+        <v>Cantu, Daniel</v>
+      </c>
+      <c r="D14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE($B15,", ",$A15)</f>
+        <v>Piñon, Lauro</v>
+      </c>
+      <c r="D15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE($B16,", ",$A16)</f>
+        <v>Montes, Carlos</v>
+      </c>
+      <c r="D16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE($B17,", ",$A17)</f>
+        <v>Rodriguez, John</v>
+      </c>
+      <c r="D17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE($B18,", ",$A18)</f>
+        <v>Pedroza, Cristobal</v>
+      </c>
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE($B19,", ",$A19)</f>
+        <v>Garcia, Fernando</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE($B20,", ",$A20)</f>
+        <v>Rivera, Raul Jr.</v>
+      </c>
+      <c r="D20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE($B21,", ",$A21)</f>
+        <v>Garcia, Gerardo</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE($B22,", ",$A22)</f>
+        <v xml:space="preserve">Segura, Roberto </v>
+      </c>
+      <c r="D22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE($B23,", ",$A23)</f>
+        <v>Ochoa, Armando</v>
+      </c>
+      <c r="D23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="str">
+        <f>CONCATENATE($B24,", ",$A24)</f>
+        <v>De La Garza, Oscar</v>
+      </c>
+      <c r="D24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>381</v>
+      </c>
+      <c r="B25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE($B25,", ",$A25)</f>
+        <v>Salinas, Saul</v>
+      </c>
+      <c r="D25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="str">
+        <f>CONCATENATE($B26,", ",$A26)</f>
+        <v>González, Justin</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="str">
+        <f>CONCATENATE($B27,", ",$A27)</f>
+        <v>Ocañas, Elias</v>
+      </c>
+      <c r="D27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="str">
+        <f>CONCATENATE($B28,", ",$A28)</f>
+        <v>Martinez, Gabriel</v>
+      </c>
+      <c r="D28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" t="s">
+        <v>392</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CONCATENATE($B29,", ",$A29)</f>
+        <v>Verduzco, Javier</v>
+      </c>
+      <c r="D29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="str">
+        <f>CONCATENATE($B30,", ",$A30)</f>
+        <v>Marroquin, José Luis</v>
+      </c>
+      <c r="D30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" t="str">
+        <f>CONCATENATE($B31,", ",$A31)</f>
+        <v>Hernandez, Ivan</v>
+      </c>
+      <c r="D31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" t="str">
+        <f>CONCATENATE($B32,", ",$A32)</f>
+        <v>Rivera, Raul</v>
+      </c>
+      <c r="D32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C33" t="str">
+        <f>CONCATENATE($B33,", ",$A33)</f>
+        <v>Saldaña, Jorge</v>
+      </c>
+      <c r="D33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" t="str">
+        <f>CONCATENATE($B34,", ",$A34)</f>
+        <v>Elizondo, Andres</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" t="str">
+        <f>CONCATENATE($B35,", ",$A35)</f>
+        <v>Galvan, Juan</v>
+      </c>
+      <c r="D35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" t="str">
+        <f>CONCATENATE($B36,", ",$A36)</f>
+        <v>Gutierrez, Noel</v>
+      </c>
+      <c r="D36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C37" t="str">
+        <f>CONCATENATE($B37,", ",$A37)</f>
+        <v>Rodriguez, Julio</v>
+      </c>
+      <c r="D37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="str">
+        <f>CONCATENATE($B38,", ",$A38)</f>
+        <v>Martinez, Juan Carlos</v>
+      </c>
+      <c r="D38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" t="str">
+        <f>CONCATENATE($B39,", ",$A39)</f>
+        <v>Benavides, Jesus</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="str">
+        <f>CONCATENATE($B40,", ",$A40)</f>
+        <v>Ochoa, Joel</v>
+      </c>
+      <c r="D40" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE($B41,", ",$A41)</f>
+        <v>Herrera, Abraham</v>
+      </c>
+      <c r="D41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" t="str">
+        <f>CONCATENATE($B42,", ",$A42)</f>
+        <v>Gutiérrez, Enrique</v>
+      </c>
+      <c r="D42" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" t="str">
+        <f>CONCATENATE($B43,", ",$A43)</f>
+        <v>Reyes, Gabino</v>
+      </c>
+      <c r="D43" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="str">
+        <f>CONCATENATE($B44,", ",$A44)</f>
+        <v>Martinez, Kevin</v>
+      </c>
+      <c r="D44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" t="str">
+        <f>CONCATENATE($B45,", ",$A45)</f>
+        <v>Leal, Sergio</v>
+      </c>
+      <c r="D45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="str">
+        <f>CONCATENATE($B46,", ",$A46)</f>
+        <v>Escobar, Horacio</v>
+      </c>
+      <c r="D46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="str">
+        <f>CONCATENATE($B47,", ",$A47)</f>
+        <v>Tovar, Eduardo</v>
+      </c>
+      <c r="D47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" t="str">
+        <f>CONCATENATE($B48,", ",$A48)</f>
+        <v>Iracheta, Eduardo</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" t="str">
+        <f>CONCATENATE($B49,", ",$A49)</f>
+        <v>Klimp, Billy</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" t="str">
+        <f>CONCATENATE($B50,", ",$A50)</f>
+        <v>Garza, Jesus</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" t="str">
+        <f>CONCATENATE($B51,", ",$A51)</f>
+        <v>Sanchez, Daniel</v>
+      </c>
+      <c r="D51" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" t="str">
+        <f>CONCATENATE($B52,", ",$A52)</f>
+        <v>Hernandez, Cesar</v>
+      </c>
+      <c r="D52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" t="str">
+        <f>CONCATENATE($B53,", ",$A53)</f>
+        <v>Montoya, Mauricio</v>
+      </c>
+      <c r="D53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="str">
+        <f>CONCATENATE($B54,", ",$A54)</f>
+        <v>Treviño, Pete</v>
+      </c>
+      <c r="D54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>309</v>
+      </c>
+      <c r="B55" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" t="str">
+        <f>CONCATENATE($B55,", ",$A55)</f>
+        <v>Estrada, Iovani</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="str">
+        <f>CONCATENATE($B56,", ",$A56)</f>
+        <v>Medina, Adan</v>
+      </c>
+      <c r="D56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" t="str">
+        <f>CONCATENATE($B57,", ",$A57)</f>
+        <v>Andrade, Jesus</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>367</v>
+      </c>
+      <c r="C58" t="str">
+        <f>CONCATENATE($B58,", ",$A58)</f>
+        <v>Retana, José</v>
+      </c>
+      <c r="D58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="str">
+        <f>CONCATENATE($B59,", ",$A59)</f>
+        <v>Mendez, José Luis</v>
+      </c>
+      <c r="D59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" t="str">
+        <f>CONCATENATE($B60,", ",$A60)</f>
+        <v>Galvan, Rogelio</v>
+      </c>
+      <c r="D60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" t="str">
+        <f>CONCATENATE($B61,", ",$A61)</f>
+        <v>Gaona, Daniel</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" t="str">
+        <f>CONCATENATE($B62,", ",$A62)</f>
+        <v>Herrera, Edgar</v>
+      </c>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="str">
+        <f>CONCATENATE($B63,", ",$A63)</f>
+        <v>Martinez, Julio</v>
+      </c>
+      <c r="D63" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" t="s">
+        <v>302</v>
+      </c>
+      <c r="C64" t="str">
+        <f>CONCATENATE($B64,", ",$A64)</f>
+        <v>De León, Ricardo</v>
+      </c>
+      <c r="D64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="str">
+        <f>CONCATENATE($B65,", ",$A65)</f>
+        <v>González, Irving</v>
+      </c>
+      <c r="D65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" t="str">
+        <f>CONCATENATE($B66,", ",$A66)</f>
+        <v>Estrada, Erick</v>
+      </c>
+      <c r="D66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="str">
+        <f>CONCATENATE($B67,", ",$A67)</f>
+        <v>Flores, Eric</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" t="str">
+        <f>CONCATENATE($B68,", ",$A68)</f>
+        <v>Marquez, Xavier Dominique</v>
+      </c>
+      <c r="D68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="str">
+        <f>CONCATENATE($B69,", ",$A69)</f>
+        <v>Flores, Javier</v>
+      </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="str">
+        <f>CONCATENATE($B70,", ",$A70)</f>
+        <v>González, Kevin</v>
+      </c>
+      <c r="D70" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="str">
+        <f>CONCATENATE($B71,", ",$A71)</f>
+        <v>Rico, José</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>296</v>
+      </c>
+      <c r="C72" t="str">
+        <f>CONCATENATE($B72,", ",$A72)</f>
+        <v>Careaga, Luis</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>379</v>
+      </c>
+      <c r="B73" t="s">
+        <v>380</v>
+      </c>
+      <c r="C73" t="str">
+        <f>CONCATENATE($B73,", ",$A73)</f>
+        <v>Salinas, Aaron</v>
+      </c>
+      <c r="D73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" t="str">
+        <f>CONCATENATE($B74,", ",$A74)</f>
+        <v>Tijerina, René</v>
+      </c>
+      <c r="D74" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" t="str">
+        <f>CONCATENATE($B75,", ",$A75)</f>
+        <v>Ramirez, Ovidio</v>
+      </c>
+      <c r="D75" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" t="str">
+        <f>CONCATENATE($B76,", ",$A76)</f>
+        <v>Alaniz, Juan</v>
+      </c>
+      <c r="D76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" t="str">
+        <f>CONCATENATE($B77,", ",$A77)</f>
+        <v>Oyervides, Arturo</v>
+      </c>
+      <c r="D77" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" t="str">
+        <f>CONCATENATE($B78,", ",$A78)</f>
+        <v>Escobedo, Arnoldo</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" t="str">
+        <f>CONCATENATE($B79,", ",$A79)</f>
+        <v>Salinas, Jesus</v>
+      </c>
+      <c r="D79" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" t="str">
+        <f>CONCATENATE($B80,", ",$A80)</f>
+        <v>Palacios, Edwin</v>
+      </c>
+      <c r="D80" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" t="str">
+        <f>CONCATENATE($B81,", ",$A81)</f>
+        <v>Cepeda, René</v>
+      </c>
+      <c r="D81" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>374</v>
+      </c>
+      <c r="C82" t="str">
+        <f>CONCATENATE($B82,", ",$A82)</f>
+        <v>Rodriguez, Antonio</v>
+      </c>
+      <c r="D82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" t="s">
+        <v>299</v>
+      </c>
+      <c r="C83" t="str">
+        <f>CONCATENATE($B83,", ",$A83)</f>
+        <v>Chavez, Javier</v>
+      </c>
+      <c r="D83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>339</v>
+      </c>
+      <c r="B84" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" t="str">
+        <f>CONCATENATE($B84,", ",$A84)</f>
+        <v>Marquez, Lucio</v>
+      </c>
+      <c r="D84" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>332</v>
+      </c>
+      <c r="B85" t="s">
+        <v>333</v>
+      </c>
+      <c r="C85" t="str">
+        <f>CONCATENATE($B85,", ",$A85)</f>
+        <v>Johnson, Andrew</v>
+      </c>
+      <c r="D85" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" t="str">
+        <f>CONCATENATE($B86,", ",$A86)</f>
+        <v>Hisiquio, Isai</v>
+      </c>
+      <c r="D86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" t="str">
+        <f>CONCATENATE($B87,", ",$A87)</f>
+        <v>Contreras Sr., Oscar</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" t="str">
+        <f>CONCATENATE($B88,", ",$A88)</f>
+        <v>Lopez, Raul</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="str">
+        <f>CONCATENATE($B89,", ",$A89)</f>
+        <v>Garcia, Louis</v>
+      </c>
+      <c r="D89" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>315</v>
+      </c>
+      <c r="C90" t="str">
+        <f>CONCATENATE($B90,", ",$A90)</f>
+        <v>Garza, Sergio</v>
+      </c>
+      <c r="D90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" t="str">
+        <f>CONCATENATE($B91,", ",$A91)</f>
+        <v>Cabrera, Sergio</v>
+      </c>
+      <c r="D91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="str">
+        <f>CONCATENATE($B92,", ",$A92)</f>
+        <v>Vela, Ediberto</v>
+      </c>
+      <c r="D92" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" t="str">
+        <f>CONCATENATE($B93,", ",$A93)</f>
+        <v>Vela, José F.</v>
+      </c>
+      <c r="D93" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" t="str">
+        <f>CONCATENATE($B94,", ",$A94)</f>
+        <v>Hisiquio, Sixto</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>351</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" t="str">
+        <f>CONCATENATE($B95,", ",$A95)</f>
+        <v>Ochoa, Adrian</v>
+      </c>
+      <c r="D95" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" t="str">
+        <f>CONCATENATE($B96,", ",$A96)</f>
+        <v>Rodriguez, Max</v>
+      </c>
+      <c r="D96" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" t="str">
+        <f>CONCATENATE($B97,", ",$A97)</f>
+        <v>Guerrero, Miguel</v>
+      </c>
+      <c r="D97" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>385</v>
+      </c>
+      <c r="C98" t="str">
+        <f>CONCATENATE($B98,", ",$A98)</f>
+        <v>Serna, Gonzalo</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" t="str">
+        <f>CONCATENATE($B99,", ",$A99)</f>
+        <v>Teniente, Juan</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="str">
+        <f>CONCATENATE($B100,", ",$A100)</f>
+        <v>Torres, Alex</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>387</v>
+      </c>
+      <c r="B101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" t="str">
+        <f>CONCATENATE($B101,", ",$A101)</f>
+        <v>Tovar, David</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="str">
+        <f>CONCATENATE($B102,", ",$A102)</f>
+        <v>Tovar, Luis</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>388</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" t="str">
+        <f>CONCATENATE($B103,", ",$A103)</f>
+        <v>Tovar, Roel</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" t="s">
+        <v>391</v>
+      </c>
+      <c r="C104" t="str">
+        <f>CONCATENATE($B104,", ",$A104)</f>
+        <v>Venegas, Gerardo</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>393</v>
+      </c>
+      <c r="B105" t="s">
+        <v>394</v>
+      </c>
+      <c r="C105" t="str">
+        <f>CONCATENATE($B105,", ",$A105)</f>
+        <v>Villareal, Leonel</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>395</v>
+      </c>
+      <c r="B106" t="s">
+        <v>396</v>
+      </c>
+      <c r="C106" t="str">
+        <f>CONCATENATE($B106,", ",$A106)</f>
+        <v>Yunes, Juan Pablo</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" t="s">
+        <v>397</v>
+      </c>
+      <c r="C107" t="str">
+        <f>CONCATENATE($B107,", ",$A107)</f>
+        <v>Zaragoza, Juan</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>342</v>
+      </c>
+      <c r="B108" t="s">
+        <v>398</v>
+      </c>
+      <c r="C108" t="str">
+        <f>CONCATENATE($B108,", ",$A108)</f>
+        <v>Zuñiga, José Luis</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D108">
+    <sortCondition ref="D2:D108"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Excel/Users.xlsx
+++ b/Docs/Excel/Users.xlsx
@@ -19,12 +19,12 @@
     <sheet name="test user multiple docs" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="469">
   <si>
     <t>ODESSA</t>
   </si>
@@ -1413,6 +1413,24 @@
   </si>
   <si>
     <t>Cantina</t>
+  </si>
+  <si>
+    <t>kaos</t>
+  </si>
+  <si>
+    <t>knuckles</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>lightfoot</t>
+  </si>
+  <si>
+    <t>omega</t>
+  </si>
+  <si>
+    <t>crusher</t>
   </si>
 </sst>
 </file>
@@ -6835,10 +6853,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6849,7 +6867,7 @@
     <col min="4" max="4" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>285</v>
       </c>
@@ -6863,7 +6881,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6871,14 +6889,14 @@
         <v>353</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE($B2,", ",$A2)</f>
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE($B2,", ",$A2)</f>
         <v>Osuna, José</v>
       </c>
       <c r="D2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -6886,14 +6904,17 @@
         <v>369</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE($B3,", ",$A3)</f>
+        <f t="shared" si="0"/>
         <v>Reyes, Juan Manuel</v>
       </c>
       <c r="D3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -6901,14 +6922,17 @@
         <v>52</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE($B4,", ",$A4)</f>
+        <f t="shared" si="0"/>
         <v>De La Rosa, Irvin</v>
       </c>
       <c r="D4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -6916,14 +6940,17 @@
         <v>38</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE($B5,", ",$A5)</f>
+        <f t="shared" si="0"/>
         <v>Medina, Francisco</v>
       </c>
       <c r="D5" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -6931,14 +6958,17 @@
         <v>38</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE($B6,", ",$A6)</f>
+        <f t="shared" si="0"/>
         <v>Medina, Miguel</v>
       </c>
       <c r="D6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>360</v>
       </c>
@@ -6946,14 +6976,17 @@
         <v>361</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE($B7,", ",$A7)</f>
+        <f t="shared" si="0"/>
         <v>Peña, Advento</v>
       </c>
       <c r="D7" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -6961,14 +6994,17 @@
         <v>43</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE($B8,", ",$A8)</f>
+        <f t="shared" si="0"/>
         <v>Martinez, Humberto</v>
       </c>
       <c r="D8" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>294</v>
       </c>
@@ -6976,14 +7012,17 @@
         <v>38</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE($B9,", ",$A9)</f>
+        <f t="shared" si="0"/>
         <v>Medina, Daniel</v>
       </c>
       <c r="D9" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>292</v>
       </c>
@@ -6991,14 +7030,14 @@
         <v>293</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE($B10,", ",$A10)</f>
+        <f t="shared" si="0"/>
         <v>Camarillo, Marco</v>
       </c>
       <c r="D10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -7006,14 +7045,14 @@
         <v>362</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE($B11,", ",$A11)</f>
+        <f t="shared" si="0"/>
         <v>Perales, Juan</v>
       </c>
       <c r="D11" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>346</v>
       </c>
@@ -7021,14 +7060,14 @@
         <v>43</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE($B12,", ",$A12)</f>
+        <f t="shared" si="0"/>
         <v>Martinez, Vicente</v>
       </c>
       <c r="D12" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>347</v>
       </c>
@@ -7036,14 +7075,14 @@
         <v>38</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE($B13,", ",$A13)</f>
+        <f t="shared" si="0"/>
         <v>Medina, Calixto</v>
       </c>
       <c r="D13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>294</v>
       </c>
@@ -7051,14 +7090,14 @@
         <v>295</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE($B14,", ",$A14)</f>
+        <f t="shared" si="0"/>
         <v>Cantu, Daniel</v>
       </c>
       <c r="D14" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>363</v>
       </c>
@@ -7066,14 +7105,14 @@
         <v>364</v>
       </c>
       <c r="C15" t="str">
-        <f>CONCATENATE($B15,", ",$A15)</f>
+        <f t="shared" si="0"/>
         <v>Piñon, Lauro</v>
       </c>
       <c r="D15" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -7081,7 +7120,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE($B16,", ",$A16)</f>
+        <f t="shared" si="0"/>
         <v>Montes, Carlos</v>
       </c>
       <c r="D16" t="s">
@@ -7096,7 +7135,7 @@
         <v>374</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE($B17,", ",$A17)</f>
+        <f t="shared" si="0"/>
         <v>Rodriguez, John</v>
       </c>
       <c r="D17" t="s">
@@ -7111,7 +7150,7 @@
         <v>359</v>
       </c>
       <c r="C18" t="str">
-        <f>CONCATENATE($B18,", ",$A18)</f>
+        <f t="shared" si="0"/>
         <v>Pedroza, Cristobal</v>
       </c>
       <c r="D18" t="s">
@@ -7126,7 +7165,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="str">
-        <f>CONCATENATE($B19,", ",$A19)</f>
+        <f t="shared" si="0"/>
         <v>Garcia, Fernando</v>
       </c>
       <c r="D19" t="s">
@@ -7141,7 +7180,7 @@
         <v>371</v>
       </c>
       <c r="C20" t="str">
-        <f>CONCATENATE($B20,", ",$A20)</f>
+        <f t="shared" si="0"/>
         <v>Rivera, Raul Jr.</v>
       </c>
       <c r="D20" t="s">
@@ -7156,7 +7195,7 @@
         <v>54</v>
       </c>
       <c r="C21" t="str">
-        <f>CONCATENATE($B21,", ",$A21)</f>
+        <f t="shared" si="0"/>
         <v>Garcia, Gerardo</v>
       </c>
       <c r="D21" t="s">
@@ -7171,7 +7210,7 @@
         <v>384</v>
       </c>
       <c r="C22" t="str">
-        <f>CONCATENATE($B22,", ",$A22)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Segura, Roberto </v>
       </c>
       <c r="D22" t="s">
@@ -7186,7 +7225,7 @@
         <v>56</v>
       </c>
       <c r="C23" t="str">
-        <f>CONCATENATE($B23,", ",$A23)</f>
+        <f t="shared" si="0"/>
         <v>Ochoa, Armando</v>
       </c>
       <c r="D23" t="s">
@@ -7201,7 +7240,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="str">
-        <f>CONCATENATE($B24,", ",$A24)</f>
+        <f t="shared" si="0"/>
         <v>De La Garza, Oscar</v>
       </c>
       <c r="D24" t="s">
@@ -7216,7 +7255,7 @@
         <v>380</v>
       </c>
       <c r="C25" t="str">
-        <f>CONCATENATE($B25,", ",$A25)</f>
+        <f t="shared" si="0"/>
         <v>Salinas, Saul</v>
       </c>
       <c r="D25" t="s">
@@ -7231,7 +7270,7 @@
         <v>64</v>
       </c>
       <c r="C26" t="str">
-        <f>CONCATENATE($B26,", ",$A26)</f>
+        <f t="shared" si="0"/>
         <v>González, Justin</v>
       </c>
       <c r="D26" t="s">
@@ -7246,7 +7285,7 @@
         <v>36</v>
       </c>
       <c r="C27" t="str">
-        <f>CONCATENATE($B27,", ",$A27)</f>
+        <f t="shared" si="0"/>
         <v>Ocañas, Elias</v>
       </c>
       <c r="D27" t="s">
@@ -7261,11 +7300,8 @@
         <v>43</v>
       </c>
       <c r="C28" t="str">
-        <f>CONCATENATE($B28,", ",$A28)</f>
+        <f t="shared" si="0"/>
         <v>Martinez, Gabriel</v>
-      </c>
-      <c r="D28" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7276,7 +7312,7 @@
         <v>392</v>
       </c>
       <c r="C29" t="str">
-        <f>CONCATENATE($B29,", ",$A29)</f>
+        <f t="shared" si="0"/>
         <v>Verduzco, Javier</v>
       </c>
       <c r="D29" t="s">
@@ -7291,7 +7327,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="str">
-        <f>CONCATENATE($B30,", ",$A30)</f>
+        <f t="shared" si="0"/>
         <v>Marroquin, José Luis</v>
       </c>
       <c r="D30" t="s">
@@ -7306,7 +7342,7 @@
         <v>323</v>
       </c>
       <c r="C31" t="str">
-        <f>CONCATENATE($B31,", ",$A31)</f>
+        <f t="shared" si="0"/>
         <v>Hernandez, Ivan</v>
       </c>
       <c r="D31" t="s">
@@ -7321,7 +7357,7 @@
         <v>371</v>
       </c>
       <c r="C32" t="str">
-        <f>CONCATENATE($B32,", ",$A32)</f>
+        <f t="shared" si="0"/>
         <v>Rivera, Raul</v>
       </c>
       <c r="D32" t="s">
@@ -7336,7 +7372,7 @@
         <v>378</v>
       </c>
       <c r="C33" t="str">
-        <f>CONCATENATE($B33,", ",$A33)</f>
+        <f t="shared" si="0"/>
         <v>Saldaña, Jorge</v>
       </c>
       <c r="D33" t="s">
@@ -7351,7 +7387,7 @@
         <v>304</v>
       </c>
       <c r="C34" t="str">
-        <f>CONCATENATE($B34,", ",$A34)</f>
+        <f t="shared" ref="C34:C65" si="1">CONCATENATE($B34,", ",$A34)</f>
         <v>Elizondo, Andres</v>
       </c>
       <c r="D34" t="s">
@@ -7366,7 +7402,7 @@
         <v>310</v>
       </c>
       <c r="C35" t="str">
-        <f>CONCATENATE($B35,", ",$A35)</f>
+        <f t="shared" si="1"/>
         <v>Galvan, Juan</v>
       </c>
       <c r="D35" t="s">
@@ -7381,7 +7417,7 @@
         <v>321</v>
       </c>
       <c r="C36" t="str">
-        <f>CONCATENATE($B36,", ",$A36)</f>
+        <f t="shared" si="1"/>
         <v>Gutierrez, Noel</v>
       </c>
       <c r="D36" t="s">
@@ -7396,7 +7432,7 @@
         <v>374</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE($B37,", ",$A37)</f>
+        <f t="shared" si="1"/>
         <v>Rodriguez, Julio</v>
       </c>
       <c r="D37" t="s">
@@ -7411,7 +7447,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="str">
-        <f>CONCATENATE($B38,", ",$A38)</f>
+        <f t="shared" si="1"/>
         <v>Martinez, Juan Carlos</v>
       </c>
       <c r="D38" t="s">
@@ -7426,7 +7462,7 @@
         <v>290</v>
       </c>
       <c r="C39" t="str">
-        <f>CONCATENATE($B39,", ",$A39)</f>
+        <f t="shared" si="1"/>
         <v>Benavides, Jesus</v>
       </c>
       <c r="D39" t="s">
@@ -7441,7 +7477,7 @@
         <v>56</v>
       </c>
       <c r="C40" t="str">
-        <f>CONCATENATE($B40,", ",$A40)</f>
+        <f t="shared" si="1"/>
         <v>Ochoa, Joel</v>
       </c>
       <c r="D40" t="s">
@@ -7456,7 +7492,7 @@
         <v>326</v>
       </c>
       <c r="C41" t="str">
-        <f>CONCATENATE($B41,", ",$A41)</f>
+        <f t="shared" si="1"/>
         <v>Herrera, Abraham</v>
       </c>
       <c r="D41" t="s">
@@ -7471,7 +7507,7 @@
         <v>319</v>
       </c>
       <c r="C42" t="str">
-        <f>CONCATENATE($B42,", ",$A42)</f>
+        <f t="shared" si="1"/>
         <v>Gutiérrez, Enrique</v>
       </c>
       <c r="D42" t="s">
@@ -7486,7 +7522,7 @@
         <v>369</v>
       </c>
       <c r="C43" t="str">
-        <f>CONCATENATE($B43,", ",$A43)</f>
+        <f t="shared" si="1"/>
         <v>Reyes, Gabino</v>
       </c>
       <c r="D43" t="s">
@@ -7501,7 +7537,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="str">
-        <f>CONCATENATE($B44,", ",$A44)</f>
+        <f t="shared" si="1"/>
         <v>Martinez, Kevin</v>
       </c>
       <c r="D44" t="s">
@@ -7516,7 +7552,7 @@
         <v>336</v>
       </c>
       <c r="C45" t="str">
-        <f>CONCATENATE($B45,", ",$A45)</f>
+        <f t="shared" si="1"/>
         <v>Leal, Sergio</v>
       </c>
       <c r="D45" t="s">
@@ -7531,7 +7567,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="str">
-        <f>CONCATENATE($B46,", ",$A46)</f>
+        <f t="shared" si="1"/>
         <v>Escobar, Horacio</v>
       </c>
       <c r="D46" t="s">
@@ -7546,7 +7582,7 @@
         <v>49</v>
       </c>
       <c r="C47" t="str">
-        <f>CONCATENATE($B47,", ",$A47)</f>
+        <f t="shared" si="1"/>
         <v>Tovar, Eduardo</v>
       </c>
       <c r="D47" t="s">
@@ -7561,7 +7597,7 @@
         <v>331</v>
       </c>
       <c r="C48" t="str">
-        <f>CONCATENATE($B48,", ",$A48)</f>
+        <f t="shared" si="1"/>
         <v>Iracheta, Eduardo</v>
       </c>
       <c r="D48" t="s">
@@ -7576,7 +7612,7 @@
         <v>335</v>
       </c>
       <c r="C49" t="str">
-        <f>CONCATENATE($B49,", ",$A49)</f>
+        <f t="shared" si="1"/>
         <v>Klimp, Billy</v>
       </c>
       <c r="D49" t="s">
@@ -7591,7 +7627,7 @@
         <v>315</v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE($B50,", ",$A50)</f>
+        <f t="shared" si="1"/>
         <v>Garza, Jesus</v>
       </c>
       <c r="D50" t="s">
@@ -7606,7 +7642,7 @@
         <v>382</v>
       </c>
       <c r="C51" t="str">
-        <f>CONCATENATE($B51,", ",$A51)</f>
+        <f t="shared" si="1"/>
         <v>Sanchez, Daniel</v>
       </c>
       <c r="D51" t="s">
@@ -7621,7 +7657,7 @@
         <v>323</v>
       </c>
       <c r="C52" t="str">
-        <f>CONCATENATE($B52,", ",$A52)</f>
+        <f t="shared" si="1"/>
         <v>Hernandez, Cesar</v>
       </c>
       <c r="D52" t="s">
@@ -7636,7 +7672,7 @@
         <v>350</v>
       </c>
       <c r="C53" t="str">
-        <f>CONCATENATE($B53,", ",$A53)</f>
+        <f t="shared" si="1"/>
         <v>Montoya, Mauricio</v>
       </c>
       <c r="D53" t="s">
@@ -7651,7 +7687,7 @@
         <v>63</v>
       </c>
       <c r="C54" t="str">
-        <f>CONCATENATE($B54,", ",$A54)</f>
+        <f t="shared" si="1"/>
         <v>Treviño, Pete</v>
       </c>
       <c r="D54" t="s">
@@ -7666,7 +7702,7 @@
         <v>308</v>
       </c>
       <c r="C55" t="str">
-        <f>CONCATENATE($B55,", ",$A55)</f>
+        <f t="shared" si="1"/>
         <v>Estrada, Iovani</v>
       </c>
       <c r="D55" t="s">
@@ -7681,7 +7717,7 @@
         <v>38</v>
       </c>
       <c r="C56" t="str">
-        <f>CONCATENATE($B56,", ",$A56)</f>
+        <f t="shared" si="1"/>
         <v>Medina, Adan</v>
       </c>
       <c r="D56" t="s">
@@ -7696,7 +7732,7 @@
         <v>289</v>
       </c>
       <c r="C57" t="str">
-        <f>CONCATENATE($B57,", ",$A57)</f>
+        <f t="shared" si="1"/>
         <v>Andrade, Jesus</v>
       </c>
       <c r="D57" t="s">
@@ -7711,7 +7747,7 @@
         <v>367</v>
       </c>
       <c r="C58" t="str">
-        <f>CONCATENATE($B58,", ",$A58)</f>
+        <f t="shared" si="1"/>
         <v>Retana, José</v>
       </c>
       <c r="D58" t="s">
@@ -7726,7 +7762,7 @@
         <v>20</v>
       </c>
       <c r="C59" t="str">
-        <f>CONCATENATE($B59,", ",$A59)</f>
+        <f t="shared" si="1"/>
         <v>Mendez, José Luis</v>
       </c>
       <c r="D59" t="s">
@@ -7741,7 +7777,7 @@
         <v>310</v>
       </c>
       <c r="C60" t="str">
-        <f>CONCATENATE($B60,", ",$A60)</f>
+        <f t="shared" si="1"/>
         <v>Galvan, Rogelio</v>
       </c>
       <c r="D60" t="s">
@@ -7756,7 +7792,7 @@
         <v>312</v>
       </c>
       <c r="C61" t="str">
-        <f>CONCATENATE($B61,", ",$A61)</f>
+        <f t="shared" si="1"/>
         <v>Gaona, Daniel</v>
       </c>
       <c r="D61" t="s">
@@ -7771,7 +7807,7 @@
         <v>326</v>
       </c>
       <c r="C62" t="str">
-        <f>CONCATENATE($B62,", ",$A62)</f>
+        <f t="shared" si="1"/>
         <v>Herrera, Edgar</v>
       </c>
       <c r="D62" t="s">
@@ -7786,7 +7822,7 @@
         <v>43</v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE($B63,", ",$A63)</f>
+        <f t="shared" si="1"/>
         <v>Martinez, Julio</v>
       </c>
       <c r="D63" t="s">
@@ -7801,7 +7837,7 @@
         <v>302</v>
       </c>
       <c r="C64" t="str">
-        <f>CONCATENATE($B64,", ",$A64)</f>
+        <f t="shared" si="1"/>
         <v>De León, Ricardo</v>
       </c>
       <c r="D64" t="s">
@@ -7816,7 +7852,7 @@
         <v>64</v>
       </c>
       <c r="C65" t="str">
-        <f>CONCATENATE($B65,", ",$A65)</f>
+        <f t="shared" si="1"/>
         <v>González, Irving</v>
       </c>
       <c r="D65" t="s">
@@ -7831,7 +7867,7 @@
         <v>308</v>
       </c>
       <c r="C66" t="str">
-        <f>CONCATENATE($B66,", ",$A66)</f>
+        <f t="shared" ref="C66:C97" si="2">CONCATENATE($B66,", ",$A66)</f>
         <v>Estrada, Erick</v>
       </c>
       <c r="D66" t="s">
@@ -7846,7 +7882,7 @@
         <v>14</v>
       </c>
       <c r="C67" t="str">
-        <f>CONCATENATE($B67,", ",$A67)</f>
+        <f t="shared" si="2"/>
         <v>Flores, Eric</v>
       </c>
       <c r="D67" t="s">
@@ -7861,7 +7897,7 @@
         <v>340</v>
       </c>
       <c r="C68" t="str">
-        <f>CONCATENATE($B68,", ",$A68)</f>
+        <f t="shared" si="2"/>
         <v>Marquez, Xavier Dominique</v>
       </c>
       <c r="D68" t="s">
@@ -7876,7 +7912,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="str">
-        <f>CONCATENATE($B69,", ",$A69)</f>
+        <f t="shared" si="2"/>
         <v>Flores, Javier</v>
       </c>
       <c r="D69" t="s">
@@ -7891,7 +7927,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="str">
-        <f>CONCATENATE($B70,", ",$A70)</f>
+        <f t="shared" si="2"/>
         <v>González, Kevin</v>
       </c>
       <c r="D70" t="s">
@@ -7906,7 +7942,7 @@
         <v>19</v>
       </c>
       <c r="C71" t="str">
-        <f>CONCATENATE($B71,", ",$A71)</f>
+        <f t="shared" si="2"/>
         <v>Rico, José</v>
       </c>
       <c r="D71" t="s">
@@ -7921,7 +7957,7 @@
         <v>296</v>
       </c>
       <c r="C72" t="str">
-        <f>CONCATENATE($B72,", ",$A72)</f>
+        <f t="shared" si="2"/>
         <v>Careaga, Luis</v>
       </c>
       <c r="D72" t="s">
@@ -7936,7 +7972,7 @@
         <v>380</v>
       </c>
       <c r="C73" t="str">
-        <f>CONCATENATE($B73,", ",$A73)</f>
+        <f t="shared" si="2"/>
         <v>Salinas, Aaron</v>
       </c>
       <c r="D73" t="s">
@@ -7951,7 +7987,7 @@
         <v>42</v>
       </c>
       <c r="C74" t="str">
-        <f>CONCATENATE($B74,", ",$A74)</f>
+        <f t="shared" si="2"/>
         <v>Tijerina, René</v>
       </c>
       <c r="D74" t="s">
@@ -7966,7 +8002,7 @@
         <v>366</v>
       </c>
       <c r="C75" t="str">
-        <f>CONCATENATE($B75,", ",$A75)</f>
+        <f t="shared" si="2"/>
         <v>Ramirez, Ovidio</v>
       </c>
       <c r="D75" t="s">
@@ -7981,7 +8017,7 @@
         <v>287</v>
       </c>
       <c r="C76" t="str">
-        <f>CONCATENATE($B76,", ",$A76)</f>
+        <f t="shared" si="2"/>
         <v>Alaniz, Juan</v>
       </c>
       <c r="D76" t="s">
@@ -7996,7 +8032,7 @@
         <v>355</v>
       </c>
       <c r="C77" t="str">
-        <f>CONCATENATE($B77,", ",$A77)</f>
+        <f t="shared" si="2"/>
         <v>Oyervides, Arturo</v>
       </c>
       <c r="D77" t="s">
@@ -8011,7 +8047,7 @@
         <v>306</v>
       </c>
       <c r="C78" t="str">
-        <f>CONCATENATE($B78,", ",$A78)</f>
+        <f t="shared" si="2"/>
         <v>Escobedo, Arnoldo</v>
       </c>
       <c r="D78" t="s">
@@ -8026,7 +8062,7 @@
         <v>380</v>
       </c>
       <c r="C79" t="str">
-        <f>CONCATENATE($B79,", ",$A79)</f>
+        <f t="shared" si="2"/>
         <v>Salinas, Jesus</v>
       </c>
       <c r="D79" t="s">
@@ -8041,7 +8077,7 @@
         <v>357</v>
       </c>
       <c r="C80" t="str">
-        <f>CONCATENATE($B80,", ",$A80)</f>
+        <f t="shared" si="2"/>
         <v>Palacios, Edwin</v>
       </c>
       <c r="D80" t="s">
@@ -8056,7 +8092,7 @@
         <v>297</v>
       </c>
       <c r="C81" t="str">
-        <f>CONCATENATE($B81,", ",$A81)</f>
+        <f t="shared" si="2"/>
         <v>Cepeda, René</v>
       </c>
       <c r="D81" t="s">
@@ -8071,7 +8107,7 @@
         <v>374</v>
       </c>
       <c r="C82" t="str">
-        <f>CONCATENATE($B82,", ",$A82)</f>
+        <f t="shared" si="2"/>
         <v>Rodriguez, Antonio</v>
       </c>
       <c r="D82" t="s">
@@ -8086,7 +8122,7 @@
         <v>299</v>
       </c>
       <c r="C83" t="str">
-        <f>CONCATENATE($B83,", ",$A83)</f>
+        <f t="shared" si="2"/>
         <v>Chavez, Javier</v>
       </c>
       <c r="D83" t="s">
@@ -8101,7 +8137,7 @@
         <v>340</v>
       </c>
       <c r="C84" t="str">
-        <f>CONCATENATE($B84,", ",$A84)</f>
+        <f t="shared" si="2"/>
         <v>Marquez, Lucio</v>
       </c>
       <c r="D84" t="s">
@@ -8116,7 +8152,7 @@
         <v>333</v>
       </c>
       <c r="C85" t="str">
-        <f>CONCATENATE($B85,", ",$A85)</f>
+        <f t="shared" si="2"/>
         <v>Johnson, Andrew</v>
       </c>
       <c r="D85" t="s">
@@ -8131,7 +8167,7 @@
         <v>329</v>
       </c>
       <c r="C86" t="str">
-        <f>CONCATENATE($B86,", ",$A86)</f>
+        <f t="shared" si="2"/>
         <v>Hisiquio, Isai</v>
       </c>
       <c r="D86" t="s">
@@ -8146,7 +8182,7 @@
         <v>300</v>
       </c>
       <c r="C87" t="str">
-        <f>CONCATENATE($B87,", ",$A87)</f>
+        <f t="shared" si="2"/>
         <v>Contreras Sr., Oscar</v>
       </c>
       <c r="D87" t="s">
@@ -8161,7 +8197,7 @@
         <v>338</v>
       </c>
       <c r="C88" t="str">
-        <f>CONCATENATE($B88,", ",$A88)</f>
+        <f t="shared" si="2"/>
         <v>Lopez, Raul</v>
       </c>
       <c r="D88" t="s">
@@ -8176,7 +8212,7 @@
         <v>54</v>
       </c>
       <c r="C89" t="str">
-        <f>CONCATENATE($B89,", ",$A89)</f>
+        <f t="shared" si="2"/>
         <v>Garcia, Louis</v>
       </c>
       <c r="D89" t="s">
@@ -8191,7 +8227,7 @@
         <v>315</v>
       </c>
       <c r="C90" t="str">
-        <f>CONCATENATE($B90,", ",$A90)</f>
+        <f t="shared" si="2"/>
         <v>Garza, Sergio</v>
       </c>
       <c r="D90" t="s">
@@ -8206,7 +8242,7 @@
         <v>291</v>
       </c>
       <c r="C91" t="str">
-        <f>CONCATENATE($B91,", ",$A91)</f>
+        <f t="shared" si="2"/>
         <v>Cabrera, Sergio</v>
       </c>
       <c r="D91" t="s">
@@ -8221,7 +8257,7 @@
         <v>40</v>
       </c>
       <c r="C92" t="str">
-        <f>CONCATENATE($B92,", ",$A92)</f>
+        <f t="shared" si="2"/>
         <v>Vela, Ediberto</v>
       </c>
       <c r="D92" t="s">
@@ -8236,7 +8272,7 @@
         <v>40</v>
       </c>
       <c r="C93" t="str">
-        <f>CONCATENATE($B93,", ",$A93)</f>
+        <f t="shared" si="2"/>
         <v>Vela, José F.</v>
       </c>
       <c r="D93" t="s">
@@ -8251,7 +8287,7 @@
         <v>329</v>
       </c>
       <c r="C94" t="str">
-        <f>CONCATENATE($B94,", ",$A94)</f>
+        <f t="shared" si="2"/>
         <v>Hisiquio, Sixto</v>
       </c>
       <c r="D94" t="s">
@@ -8266,7 +8302,7 @@
         <v>56</v>
       </c>
       <c r="C95" t="str">
-        <f>CONCATENATE($B95,", ",$A95)</f>
+        <f t="shared" si="2"/>
         <v>Ochoa, Adrian</v>
       </c>
       <c r="D95" t="s">
@@ -8281,7 +8317,7 @@
         <v>374</v>
       </c>
       <c r="C96" t="str">
-        <f>CONCATENATE($B96,", ",$A96)</f>
+        <f t="shared" si="2"/>
         <v>Rodriguez, Max</v>
       </c>
       <c r="D96" t="s">
@@ -8296,7 +8332,7 @@
         <v>317</v>
       </c>
       <c r="C97" t="str">
-        <f>CONCATENATE($B97,", ",$A97)</f>
+        <f t="shared" si="2"/>
         <v>Guerrero, Miguel</v>
       </c>
       <c r="D97" t="s">
@@ -8311,7 +8347,7 @@
         <v>385</v>
       </c>
       <c r="C98" t="str">
-        <f>CONCATENATE($B98,", ",$A98)</f>
+        <f t="shared" ref="C98:C108" si="3">CONCATENATE($B98,", ",$A98)</f>
         <v>Serna, Gonzalo</v>
       </c>
     </row>
@@ -8323,7 +8359,7 @@
         <v>386</v>
       </c>
       <c r="C99" t="str">
-        <f>CONCATENATE($B99,", ",$A99)</f>
+        <f t="shared" si="3"/>
         <v>Teniente, Juan</v>
       </c>
     </row>
@@ -8335,7 +8371,7 @@
         <v>50</v>
       </c>
       <c r="C100" t="str">
-        <f>CONCATENATE($B100,", ",$A100)</f>
+        <f t="shared" si="3"/>
         <v>Torres, Alex</v>
       </c>
     </row>
@@ -8347,7 +8383,7 @@
         <v>49</v>
       </c>
       <c r="C101" t="str">
-        <f>CONCATENATE($B101,", ",$A101)</f>
+        <f t="shared" si="3"/>
         <v>Tovar, David</v>
       </c>
     </row>
@@ -8359,7 +8395,7 @@
         <v>49</v>
       </c>
       <c r="C102" t="str">
-        <f>CONCATENATE($B102,", ",$A102)</f>
+        <f t="shared" si="3"/>
         <v>Tovar, Luis</v>
       </c>
     </row>
@@ -8371,7 +8407,7 @@
         <v>49</v>
       </c>
       <c r="C103" t="str">
-        <f>CONCATENATE($B103,", ",$A103)</f>
+        <f t="shared" si="3"/>
         <v>Tovar, Roel</v>
       </c>
     </row>
@@ -8383,7 +8419,7 @@
         <v>391</v>
       </c>
       <c r="C104" t="str">
-        <f>CONCATENATE($B104,", ",$A104)</f>
+        <f t="shared" si="3"/>
         <v>Venegas, Gerardo</v>
       </c>
     </row>
@@ -8395,7 +8431,7 @@
         <v>394</v>
       </c>
       <c r="C105" t="str">
-        <f>CONCATENATE($B105,", ",$A105)</f>
+        <f t="shared" si="3"/>
         <v>Villareal, Leonel</v>
       </c>
     </row>
@@ -8407,7 +8443,7 @@
         <v>396</v>
       </c>
       <c r="C106" t="str">
-        <f>CONCATENATE($B106,", ",$A106)</f>
+        <f t="shared" si="3"/>
         <v>Yunes, Juan Pablo</v>
       </c>
     </row>
@@ -8419,7 +8455,7 @@
         <v>397</v>
       </c>
       <c r="C107" t="str">
-        <f>CONCATENATE($B107,", ",$A107)</f>
+        <f t="shared" si="3"/>
         <v>Zaragoza, Juan</v>
       </c>
     </row>
@@ -8431,7 +8467,7 @@
         <v>398</v>
       </c>
       <c r="C108" t="str">
-        <f>CONCATENATE($B108,", ",$A108)</f>
+        <f t="shared" si="3"/>
         <v>Zuñiga, José Luis</v>
       </c>
     </row>
